--- a/BackTest/2020-01-24 BackTest BCH.xlsx
+++ b/BackTest/2020-01-24 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,7 +1375,7 @@
         <v>497.82806051</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>548.7018652899999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>548.6881652899999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>524.6119652899999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>544.3388652899999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>525.80606529</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>540.80606529</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>498.72166529</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>512.72826529</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>499.72826529</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>443.0202652899999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>454.7936652899999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>453.8519652899999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>459.5105652899999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>369.9600652899999</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>330.2821652899999</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>341.4499652899999</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>397.0127652899999</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>396.6611652899999</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>398.0611652899998</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>383.4611652899998</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>381.4656652899998</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>377.4555652899998</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>383.3755652899998</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>391.5032652899998</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>379.6678652899998</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>388.9161652899999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>388.9161652899999</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>388.9062646699999</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>388.9062646699999</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>389.8180646699999</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>370.9772646699999</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>371.8007646699999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>366.9772646699999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>366.1556646699999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>360.4662646699999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>360.5738646699999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>360.5738646699999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>362.1746646699999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>362.1746646699999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>362.3603646699999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>350.3603646699999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>368.8403646699999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>368.8403646699999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>303.3796646699999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>303.3796646699999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>303.3815646699999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>303.3815646699999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>298.4621646699999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>298.4621646699999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>298.4621646699999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>292.3627646699999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>291.4431646699999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>303.2991646699999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>303.2991646699999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>460.3207973399998</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>462.5194973399998</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>458.1045973399998</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>458.1045973399998</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>457.5612973399998</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>506.9439973399998</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>507.4233973399998</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>502.3436973399998</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>541.9526973399998</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>539.0757973399998</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>539.0757973399998</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>532.7258973399997</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>534.3507973399998</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>648.3976856099998</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>832.7386856099998</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>692.8036856099999</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>688.7714856099999</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>676.4946856099999</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>657.6554856099999</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>673.67888561</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>668.10578561</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>655.62418561</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>660.8391856100001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>660.87928561</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>681.1098209100001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>680.0616209100001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>748.97852091</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>762.65742091</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>766.36642091</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>826.1132201899999</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>818.1491201899998</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>824.1143201899998</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>731.1391201899999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>728.5924201899999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>727.6237201899999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>709.9506201899999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>709.9506201899999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>653.2734201899999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>704.6543201899999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>671.8098201899999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>671.8098201899999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>672.1337201899998</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>668.1239201899998</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>651.3646201899998</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>551.0269201899997</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>501.8354201899997</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>501.8354201899997</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>440.2544201899997</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>413.9937201899997</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>367.5233201899997</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>433.8158201899997</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -16456,17 +16456,11 @@
         <v>-299.1277937900006</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>384500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16495,7 +16489,7 @@
         <v>-197.2210937900006</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>384900</v>
@@ -16503,7 +16497,7 @@
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16534,11 +16528,9 @@
         <v>-236.7901937900006</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>386100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16573,11 +16565,9 @@
         <v>-243.2494937900006</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>384900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16612,7 +16602,7 @@
         <v>-253.4594937900006</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>384500</v>
@@ -16651,7 +16641,7 @@
         <v>-226.1599937900006</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>384400</v>
@@ -16690,7 +16680,7 @@
         <v>-154.0530937900006</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>385600</v>
@@ -16729,7 +16719,7 @@
         <v>-87.86459379000058</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>386700</v>
@@ -16768,7 +16758,7 @@
         <v>-65.30259379000059</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>387500</v>
@@ -16807,9 +16797,11 @@
         <v>-63.83369379000059</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>387800</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -16844,9 +16836,11 @@
         <v>-104.8451937900006</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>388100</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -16881,9 +16875,11 @@
         <v>-97.93039379000059</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>388000</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -18213,11 +18209,9 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18252,11 +18246,9 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18772,11 +18764,9 @@
         <v>-987.4699700500006</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -21253,7 +21243,7 @@
         <v>-651.1977110700007</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21364,7 +21354,7 @@
         <v>-480.5878784000006</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24879,11 +24869,9 @@
         <v>-1084.999213120001</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
-      </c>
-      <c r="I714" t="n">
-        <v>388500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24918,11 +24906,9 @@
         <v>-1086.536013120001</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>388400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24994,11 +24980,9 @@
         <v>-1000.904313120001</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
-      </c>
-      <c r="I717" t="n">
-        <v>388500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -26883,9 +26867,11 @@
         <v>-1058.971551710001</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>387700</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26920,9 +26906,11 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>388100</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26957,9 +26945,11 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>387700</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26994,7 +26984,7 @@
         <v>-1052.983351710001</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>387700</v>
@@ -27033,7 +27023,7 @@
         <v>-1047.983351710001</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>388100</v>
@@ -27072,7 +27062,7 @@
         <v>-1047.183351710001</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>388200</v>
@@ -27111,11 +27101,9 @@
         <v>-1022.813151710001</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
-      </c>
-      <c r="I774" t="n">
-        <v>388400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -27298,11 +27286,9 @@
         <v>-1015.980551710001</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
-      </c>
-      <c r="I779" t="n">
-        <v>389100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -27337,11 +27323,9 @@
         <v>-1015.926851710001</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>389100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -28005,11 +27989,9 @@
         <v>-902.635342530001</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
-      </c>
-      <c r="I798" t="n">
-        <v>389400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -28895,11 +28877,9 @@
         <v>-1265.990829010001</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
-      </c>
-      <c r="I822" t="n">
-        <v>390300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -30525,9 +30505,11 @@
         <v>-1183.963308390002</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>388300</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -30562,9 +30544,11 @@
         <v>-1186.326508390002</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>388300</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -30599,9 +30583,11 @@
         <v>-1186.326508390002</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>387600</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -30636,9 +30622,11 @@
         <v>-1164.704008390002</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>387600</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -30710,9 +30698,11 @@
         <v>-1175.138108390002</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>387400</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -30747,9 +30737,11 @@
         <v>-1176.138108390002</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>387500</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -30784,9 +30776,11 @@
         <v>-1188.183708390002</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>387300</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -30821,9 +30815,11 @@
         <v>-1126.731708390002</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>387100</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -30858,9 +30854,11 @@
         <v>-967.8120083900018</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>387300</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -31783,11 +31781,9 @@
         <v>-858.0206083900016</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
-      </c>
-      <c r="I900" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31822,11 +31818,9 @@
         <v>-933.3303083900016</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
-      </c>
-      <c r="I901" t="n">
-        <v>386700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -31861,11 +31855,9 @@
         <v>-929.1370083900016</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
-      </c>
-      <c r="I902" t="n">
-        <v>386400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31900,11 +31892,9 @@
         <v>-919.1370083900016</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
-      </c>
-      <c r="I903" t="n">
-        <v>387300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32161,11 +32151,9 @@
         <v>-1026.406808390002</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
-      </c>
-      <c r="I910" t="n">
-        <v>386200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -32200,11 +32188,9 @@
         <v>-988.4422083900015</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
-      </c>
-      <c r="I911" t="n">
-        <v>386000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -32239,11 +32225,9 @@
         <v>-1002.701908390001</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
-      </c>
-      <c r="I912" t="n">
-        <v>386300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -32278,7 +32262,7 @@
         <v>-1002.495508390001</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>385900</v>
@@ -32317,11 +32301,9 @@
         <v>-902.1797394100014</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
-      </c>
-      <c r="I914" t="n">
-        <v>386700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -32356,11 +32338,9 @@
         <v>-876.2506394100014</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
-      </c>
-      <c r="I915" t="n">
-        <v>387400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -32395,11 +32375,9 @@
         <v>-896.7912394100015</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
-      </c>
-      <c r="I916" t="n">
-        <v>387500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -32434,11 +32412,9 @@
         <v>-852.4120394100015</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
-      </c>
-      <c r="I917" t="n">
-        <v>387300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -32547,11 +32523,9 @@
         <v>-857.9131394100016</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
-      </c>
-      <c r="I920" t="n">
-        <v>387500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -32601,6 +32575,6 @@
       <c r="M921" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BCH.xlsx
+++ b/BackTest/2020-01-24 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>520.1738652899999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>548.7018652899999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>548.6881652899999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>544.3388652899999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>525.80606529</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>540.80606529</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>498.72166529</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>512.72826529</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>499.72826529</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>454.7936652899999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>453.8519652899999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>459.5105652899999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>396.6611652899999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>398.0611652899998</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>383.4611652899998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>381.4656652899998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>377.4555652899998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>383.3755652899998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>391.5032652899998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>379.6678652899998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>388.9161652899999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>388.9161652899999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>388.9062646699999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>388.9062646699999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>389.8180646699999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>370.9772646699999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>371.8007646699999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>366.9772646699999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>366.1556646699999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>360.4662646699999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>360.5738646699999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>360.5738646699999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>362.1746646699999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>362.1746646699999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>362.3603646699999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>350.3603646699999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>368.8403646699999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>368.8403646699999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>303.3796646699999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>303.3796646699999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>303.3815646699999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>303.3815646699999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>298.4621646699999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>298.4621646699999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>298.4621646699999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>292.3627646699999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>291.4431646699999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>303.2991646699999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>303.2991646699999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>532.7258973399997</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>534.3507973399998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>648.3976856099998</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>832.7386856099998</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>692.8036856099999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>688.7714856099999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>676.4946856099999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>657.6554856099999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>673.67888561</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>668.10578561</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>655.62418561</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>660.8391856100001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>660.87928561</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>681.1098209100001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>680.0616209100001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>748.97852091</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>762.65742091</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>766.36642091</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>731.1391201899999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>728.5924201899999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>727.6237201899999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>709.9506201899999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>709.9506201899999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>653.2734201899999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>704.6543201899999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>671.8098201899999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>671.8098201899999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>672.1337201899998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>668.1239201899998</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>651.3646201899998</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>551.0269201899997</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>501.8354201899997</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>501.8354201899997</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>440.2544201899997</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>433.8158201899997</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -16489,17 +16489,11 @@
         <v>-197.2210937900006</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>384900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16532,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16569,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16602,17 +16588,11 @@
         <v>-253.4594937900006</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>384500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16641,17 +16621,11 @@
         <v>-226.1599937900006</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>384400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16680,17 +16654,11 @@
         <v>-154.0530937900006</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>385600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16719,17 +16687,11 @@
         <v>-87.86459379000058</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>386700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16758,17 +16720,11 @@
         <v>-65.30259379000059</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>387500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16797,17 +16753,11 @@
         <v>-63.83369379000059</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>387800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16836,17 +16786,11 @@
         <v>-104.8451937900006</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>388100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16875,17 +16819,11 @@
         <v>-97.93039379000059</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16955,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16992,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17029,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17066,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17103,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17140,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17177,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17214,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17251,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17288,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17325,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17362,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17399,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17436,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17473,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17510,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17547,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17584,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17621,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17658,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17695,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17732,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17769,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17806,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17843,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17880,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17917,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17950,15 +17776,11 @@
         <v>-46.39557231000062</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17991,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18028,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18065,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18098,15 +17908,11 @@
         <v>-381.0498723100006</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18135,15 +17941,11 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18172,15 +17974,11 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18209,15 +18007,11 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18246,15 +18040,11 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18287,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18324,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18361,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18394,15 +18172,11 @@
         <v>-838.3112723100006</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18431,15 +18205,11 @@
         <v>-855.1265723100006</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18472,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18509,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18546,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18583,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18620,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18657,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18694,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18731,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18768,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18805,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18842,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18879,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18916,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18953,11 +18671,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18990,11 +18704,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19027,11 +18737,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19064,11 +18770,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19101,11 +18803,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19138,11 +18836,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19175,11 +18869,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19212,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19249,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19286,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19323,11 +19001,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19397,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19434,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19471,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19508,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19545,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19582,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19619,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19656,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19693,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19730,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19767,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19804,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19841,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19878,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19915,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19952,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19989,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20026,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20063,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20100,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20137,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20174,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20211,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20248,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20285,11 +19859,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20322,11 +19892,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20359,11 +19925,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20396,11 +19958,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20433,11 +19991,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20470,11 +20024,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20507,11 +20057,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20544,11 +20090,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20123,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20618,11 +20156,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20655,11 +20189,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20692,11 +20222,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20729,11 +20255,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20766,11 +20288,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20803,11 +20321,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20840,11 +20354,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20877,11 +20387,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20914,11 +20420,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20951,11 +20453,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20988,11 +20486,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21025,11 +20519,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21062,11 +20552,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21099,11 +20585,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21136,11 +20618,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21169,15 +20647,11 @@
         <v>-681.3808110700007</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21206,15 +20680,11 @@
         <v>-621.3977110700007</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21243,15 +20713,11 @@
         <v>-651.1977110700007</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21280,15 +20746,11 @@
         <v>-519.8710110700007</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21317,15 +20779,11 @@
         <v>-514.7702110700006</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21354,15 +20812,11 @@
         <v>-480.5878784000006</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21391,15 +20845,11 @@
         <v>-474.4096110700007</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21428,15 +20878,11 @@
         <v>-486.0478110700006</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21465,15 +20911,11 @@
         <v>-481.2181110700006</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21502,15 +20944,11 @@
         <v>-486.3189110700006</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21539,15 +20977,11 @@
         <v>-616.9100110700007</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21576,15 +21010,11 @@
         <v>-614.3625657500007</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21613,15 +21043,11 @@
         <v>-611.2813657500008</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21650,15 +21076,11 @@
         <v>-637.4341657500007</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21687,15 +21109,11 @@
         <v>-615.3124657500007</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21728,11 +21146,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21765,11 +21179,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +21212,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21839,11 +21245,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21872,15 +21274,11 @@
         <v>-642.8709906200006</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21913,11 +21311,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21950,11 +21344,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21987,11 +21377,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22024,11 +21410,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22061,11 +21443,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22098,11 +21476,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22135,11 +21509,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22172,11 +21542,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22209,11 +21575,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22246,11 +21608,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22283,11 +21641,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22320,11 +21674,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22357,11 +21707,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22394,11 +21740,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22431,11 +21773,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22468,11 +21806,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22505,11 +21839,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22542,11 +21872,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22579,11 +21905,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22616,11 +21938,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22653,11 +21971,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22690,11 +22004,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22727,11 +22037,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22764,11 +22070,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22801,11 +22103,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22838,11 +22136,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22875,11 +22169,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22912,11 +22202,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22949,11 +22235,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22986,11 +22268,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +22301,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23060,11 +22334,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23097,11 +22367,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23134,11 +22400,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23171,11 +22433,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23208,11 +22466,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23245,11 +22499,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23282,11 +22532,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23319,11 +22565,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23356,11 +22598,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23393,11 +22631,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23430,11 +22664,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23467,11 +22697,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23504,11 +22730,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23541,11 +22763,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23578,11 +22796,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23615,11 +22829,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23652,11 +22862,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23689,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23726,11 +22928,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23763,11 +22961,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23800,11 +22994,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23837,11 +23027,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23874,11 +23060,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23911,11 +23093,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23948,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23985,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24022,11 +23192,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24059,11 +23225,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24096,11 +23258,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24133,11 +23291,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24170,11 +23324,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24207,11 +23357,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24244,11 +23390,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24281,11 +23423,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24318,11 +23456,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24355,11 +23489,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24392,11 +23522,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24429,11 +23555,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24466,11 +23588,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24503,11 +23621,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24540,11 +23654,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24577,11 +23687,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24614,11 +23720,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24651,11 +23753,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24688,11 +23786,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24725,11 +23819,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24762,11 +23852,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24799,11 +23885,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24836,11 +23918,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24873,11 +23951,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24910,11 +23984,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24947,11 +24017,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24984,11 +24050,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25021,11 +24083,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25058,11 +24116,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25095,11 +24149,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25132,11 +24182,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25169,11 +24215,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25206,11 +24248,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25243,11 +24281,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25280,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25317,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25354,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25391,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25428,11 +24446,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +24479,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25502,11 +24512,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25539,11 +24545,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25576,11 +24578,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25613,11 +24611,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25650,11 +24644,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25687,11 +24677,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25724,11 +24710,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25761,11 +24743,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25798,11 +24776,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25835,11 +24809,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25872,11 +24842,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25909,11 +24875,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25946,11 +24908,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25983,11 +24941,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26020,11 +24974,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26057,11 +25007,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26094,11 +25040,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26131,11 +25073,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26168,11 +25106,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26205,11 +25139,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26242,11 +25172,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26279,11 +25205,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26316,11 +25238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26353,11 +25271,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26390,11 +25304,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26427,11 +25337,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26464,11 +25370,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26501,11 +25403,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26538,11 +25436,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26575,11 +25469,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26612,11 +25502,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26649,11 +25535,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +25568,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26723,11 +25601,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26760,11 +25634,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26797,11 +25667,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26834,11 +25700,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26867,17 +25729,11 @@
         <v>-1058.971551710001</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26906,17 +25762,11 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>388100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26945,17 +25795,11 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26984,17 +25828,11 @@
         <v>-1052.983351710001</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27023,17 +25861,11 @@
         <v>-1047.983351710001</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>388100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27062,17 +25894,11 @@
         <v>-1047.183351710001</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>388200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27105,11 +25931,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27142,11 +25964,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27179,11 +25997,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27216,11 +26030,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27253,11 +26063,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27290,11 +26096,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27327,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27364,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27401,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27438,11 +26228,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27475,11 +26261,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27512,11 +26294,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27549,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27586,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27623,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27660,11 +26426,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27697,11 +26459,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27734,11 +26492,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27771,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27808,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27845,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27882,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27919,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27956,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27993,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28030,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28067,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28104,11 +26822,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28141,11 +26855,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28178,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28215,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28252,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28289,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28326,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28363,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28400,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28437,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28474,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28511,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28548,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28585,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28622,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28659,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28696,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28733,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28770,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28807,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28844,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28881,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28918,11 +27548,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28955,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28992,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29066,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29103,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29140,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29177,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29214,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29251,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29288,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29325,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29362,11 +27944,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29399,11 +27977,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29436,11 +28010,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29473,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29510,11 +28076,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29547,11 +28109,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29584,11 +28142,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29621,11 +28175,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29658,11 +28208,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29695,11 +28241,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29732,11 +28274,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29769,11 +28307,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29806,11 +28340,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29843,11 +28373,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29880,11 +28406,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29917,11 +28439,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29954,11 +28472,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29991,11 +28505,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30028,11 +28538,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30065,11 +28571,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30102,11 +28604,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30139,11 +28637,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30176,11 +28670,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30213,11 +28703,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30250,11 +28736,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30287,11 +28769,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30324,11 +28802,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30361,11 +28835,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30398,11 +28868,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30435,11 +28901,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30472,11 +28934,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30513,7 +28971,7 @@
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L866" t="n">
@@ -30661,9 +29119,11 @@
         <v>-1175.145708390002</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>388300</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -30893,9 +29353,11 @@
         <v>-967.8120083900018</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>388300</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -30930,9 +29392,11 @@
         <v>-923.3777083900018</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>388300</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -30967,9 +29431,11 @@
         <v>-859.1414083900017</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>388800</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -32262,11 +30728,9 @@
         <v>-1002.495508390001</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>385900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -32575,6 +31039,6 @@
       <c r="M921" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BCH.xlsx
+++ b/BackTest/2020-01-24 BackTest BCH.xlsx
@@ -1672,7 +1672,7 @@
         <v>520.1738652899999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>499.72826529</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>371.8007646699999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>366.9772646699999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>539.0757973399998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>539.0757973399998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>532.7258973399997</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>534.3507973399998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>612.2524973399998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>611.7565973399998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>636.0273973399998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>641.0715973399998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>701.6822856099998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>634.0989856099998</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>648.3976856099998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>832.7386856099998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>820.5197856099999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>692.8036856099999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>688.7714856099999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>676.4946856099999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>657.6554856099999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>657.65888561</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>673.67888561</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>668.10578561</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>655.62418561</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>663.43168561</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>660.87928561</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>681.1098209100001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>748.97852091</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>762.65742091</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>766.36642091</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>744.4422209099999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>747.8422209099999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-46.39557231000062</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-381.0498723100006</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-577.8430723100006</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-838.3112723100006</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-855.1265723100006</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-681.3808110700007</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-621.3977110700007</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-651.1977110700007</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-519.8710110700007</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-514.7702110700006</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-480.5878784000006</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-474.4096110700007</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-486.0478110700006</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-481.2181110700006</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-486.3189110700006</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-616.9100110700007</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-614.3625657500007</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-611.2813657500008</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-637.4341657500007</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-615.3124657500007</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-642.8709906200006</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -25267,10 +25267,14 @@
         <v>-1068.590951710001</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>388200</v>
+      </c>
+      <c r="J754" t="n">
+        <v>388200</v>
+      </c>
       <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
@@ -25300,11 +25304,19 @@
         <v>-1068.230851710001</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>388200</v>
+      </c>
+      <c r="J755" t="n">
+        <v>388200</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25345,19 @@
         <v>-1069.589351710001</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>388800</v>
+      </c>
+      <c r="J756" t="n">
+        <v>388200</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25650,17 @@
         <v>-1094.444851710001</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>388400</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25689,17 @@
         <v>-1115.244851710001</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>388100</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25728,17 @@
         <v>-1115.125251710001</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>387300</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +25767,17 @@
         <v>-1058.971551710001</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>387700</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25762,11 +25806,17 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>388100</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +25845,17 @@
         <v>-1060.983351710001</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>387700</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25828,11 +25884,17 @@
         <v>-1052.983351710001</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>387700</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +25923,17 @@
         <v>-1047.983351710001</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>388100</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +25962,17 @@
         <v>-1047.183351710001</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>388200</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +26001,17 @@
         <v>-1022.813151710001</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>388400</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +26044,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26081,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26118,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26155,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26192,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26229,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26266,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26303,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26340,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26377,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26414,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26451,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +26488,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26525,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +26562,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26599,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26636,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26673,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26710,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +26747,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +26784,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +26821,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +26858,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +26895,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +26932,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +26969,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +27006,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +27043,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +27080,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +27117,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27154,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27191,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27228,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27265,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27302,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27339,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27376,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27413,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27450,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27487,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27524,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27561,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27598,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27635,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27672,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27709,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27746,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27783,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27820,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27857,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27894,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27931,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27968,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +28005,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +28042,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +28079,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +28116,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28153,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28190,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28227,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28264,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28301,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28338,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +28375,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28412,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +28449,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +28486,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28523,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28560,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28597,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28634,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28671,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +28708,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28745,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28782,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28819,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28856,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28893,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28930,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28967,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +29000,17 @@
         <v>-1205.619802410001</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>388500</v>
+      </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +29039,17 @@
         <v>-1206.019802410001</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>388800</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +29078,17 @@
         <v>-1207.718202410001</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>388700</v>
+      </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +29117,17 @@
         <v>-1206.458702410001</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>388100</v>
+      </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +29156,17 @@
         <v>-1189.458702410001</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>388600</v>
+      </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29195,17 @@
         <v>-1170.144465160001</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>388800</v>
+      </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +29238,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +29275,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +29312,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +29349,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29386,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28971,7 +29427,7 @@
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L866" t="n">
@@ -29470,9 +29926,11 @@
         <v>-862.8217083900017</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>389100</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29507,9 +29965,11 @@
         <v>-857.5231083900018</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>388700</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29544,9 +30004,11 @@
         <v>-859.9541083900018</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>388900</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -29581,9 +30043,11 @@
         <v>-860.9541083900018</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>388700</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30136,9 +30600,11 @@
         <v>-893.5685083900016</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>387000</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30173,9 +30639,11 @@
         <v>-844.4074083900016</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>386300</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30210,9 +30678,11 @@
         <v>-823.5072083900016</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>386500</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30247,9 +30717,11 @@
         <v>-858.0206083900016</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>387000</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30617,9 +31089,11 @@
         <v>-1026.406808390002</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>386200</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -30654,9 +31128,11 @@
         <v>-988.4422083900015</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>386000</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -30691,9 +31167,11 @@
         <v>-1002.701908390001</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>386300</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -30728,9 +31206,11 @@
         <v>-1002.495508390001</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>385900</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -30765,9 +31245,11 @@
         <v>-902.1797394100014</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>386700</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
